--- a/data/output/FV2504_FV2410/REQOTE/35003.xlsx
+++ b/data/output/FV2504_FV2410/REQOTE/35003.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="271">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="271">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -970,6 +970,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U124" totalsRowShown="0">
+  <autoFilter ref="A1:U124"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1259,7 +1289,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6536,5 +6569,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/REQOTE/35003.xlsx
+++ b/data/output/FV2504_FV2410/REQOTE/35003.xlsx
@@ -1320,7 +1320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1343,6 +1343,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1351,6 +1354,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1793,7 +1799,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2157,7 +2163,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2303,7 +2309,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2507,7 +2513,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2711,7 +2717,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2"/>
@@ -2851,7 +2857,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -3051,7 +3057,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -3359,7 +3365,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3551,7 +3557,7 @@
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -3925,7 +3931,7 @@
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="2" t="s">
+      <c r="M44" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -4229,7 +4235,7 @@
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -4367,7 +4373,7 @@
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -4503,22 +4509,22 @@
       <c r="B56" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8" t="s">
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="K56" s="8" t="s">
+      <c r="K56" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="L56" s="9" t="s">
+      <c r="L56" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M56" s="5"/>
@@ -4536,27 +4542,27 @@
       <c r="A57" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8" t="s">
+      <c r="E57" s="9"/>
+      <c r="F57" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8" t="s">
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="K57" s="8"/>
-      <c r="L57" s="9" t="s">
+      <c r="K57" s="9"/>
+      <c r="L57" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M57" s="5"/>
@@ -4574,33 +4580,33 @@
       <c r="A58" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8" t="s">
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="J58" s="8" t="s">
+      <c r="J58" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="K58" s="8" t="s">
+      <c r="K58" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="L58" s="9" t="s">
+      <c r="L58" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M58" s="5"/>
@@ -4618,31 +4624,31 @@
       <c r="A59" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G59" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8" t="s">
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="K59" s="8"/>
-      <c r="L59" s="9" t="s">
+      <c r="K59" s="9"/>
+      <c r="L59" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M59" s="5"/>
@@ -4660,27 +4666,27 @@
       <c r="A60" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8" t="s">
+      <c r="E60" s="9"/>
+      <c r="F60" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8" t="s">
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="K60" s="8"/>
-      <c r="L60" s="9" t="s">
+      <c r="K60" s="9"/>
+      <c r="L60" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M60" s="5"/>
@@ -4698,29 +4704,29 @@
       <c r="A61" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8" t="s">
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="K61" s="8"/>
-      <c r="L61" s="9" t="s">
+      <c r="K61" s="9"/>
+      <c r="L61" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M61" s="5"/>
@@ -4738,33 +4744,33 @@
       <c r="A62" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8" t="s">
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="J62" s="8" t="s">
+      <c r="J62" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="K62" s="8" t="s">
+      <c r="K62" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="L62" s="9" t="s">
+      <c r="L62" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M62" s="5"/>
@@ -4782,33 +4788,33 @@
       <c r="A63" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="G63" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8" t="s">
+      <c r="H63" s="9"/>
+      <c r="I63" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="J63" s="8" t="s">
+      <c r="J63" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="K63" s="8"/>
-      <c r="L63" s="9" t="s">
+      <c r="K63" s="9"/>
+      <c r="L63" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M63" s="5"/>
@@ -4829,22 +4835,22 @@
       <c r="B64" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8" t="s">
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="K64" s="8" t="s">
+      <c r="K64" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="L64" s="9" t="s">
+      <c r="L64" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M64" s="5"/>
@@ -4862,27 +4868,27 @@
       <c r="A65" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8" t="s">
+      <c r="E65" s="9"/>
+      <c r="F65" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8" t="s">
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="K65" s="8"/>
-      <c r="L65" s="9" t="s">
+      <c r="K65" s="9"/>
+      <c r="L65" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M65" s="5"/>
@@ -4900,33 +4906,33 @@
       <c r="A66" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8" t="s">
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="J66" s="8" t="s">
+      <c r="J66" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="K66" s="8" t="s">
+      <c r="K66" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="L66" s="9" t="s">
+      <c r="L66" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M66" s="5"/>
@@ -4944,31 +4950,31 @@
       <c r="A67" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="G67" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8" t="s">
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="K67" s="8"/>
-      <c r="L67" s="9" t="s">
+      <c r="K67" s="9"/>
+      <c r="L67" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M67" s="5"/>
@@ -4986,27 +4992,27 @@
       <c r="A68" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8" t="s">
+      <c r="E68" s="9"/>
+      <c r="F68" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8" t="s">
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="K68" s="8"/>
-      <c r="L68" s="9" t="s">
+      <c r="K68" s="9"/>
+      <c r="L68" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M68" s="5"/>
@@ -5024,29 +5030,29 @@
       <c r="A69" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8" t="s">
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="K69" s="8"/>
-      <c r="L69" s="9" t="s">
+      <c r="K69" s="9"/>
+      <c r="L69" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M69" s="5"/>
@@ -5064,33 +5070,33 @@
       <c r="A70" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8" t="s">
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="J70" s="8" t="s">
+      <c r="J70" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="K70" s="8" t="s">
+      <c r="K70" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="L70" s="9" t="s">
+      <c r="L70" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M70" s="5"/>
@@ -5108,33 +5114,33 @@
       <c r="A71" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G71" s="8" t="s">
+      <c r="G71" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8" t="s">
+      <c r="H71" s="9"/>
+      <c r="I71" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="J71" s="8" t="s">
+      <c r="J71" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="K71" s="8"/>
-      <c r="L71" s="9" t="s">
+      <c r="K71" s="9"/>
+      <c r="L71" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M71" s="5"/>
@@ -5155,22 +5161,22 @@
       <c r="B72" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8" t="s">
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="K72" s="8" t="s">
+      <c r="K72" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="L72" s="9" t="s">
+      <c r="L72" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M72" s="5"/>
@@ -5188,27 +5194,27 @@
       <c r="A73" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8" t="s">
+      <c r="E73" s="9"/>
+      <c r="F73" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8" t="s">
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="K73" s="8"/>
-      <c r="L73" s="9" t="s">
+      <c r="K73" s="9"/>
+      <c r="L73" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M73" s="5"/>
@@ -5226,33 +5232,33 @@
       <c r="A74" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8" t="s">
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="J74" s="8" t="s">
+      <c r="J74" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="K74" s="8" t="s">
+      <c r="K74" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="L74" s="9" t="s">
+      <c r="L74" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M74" s="5"/>
@@ -5270,31 +5276,31 @@
       <c r="A75" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G75" s="8" t="s">
+      <c r="G75" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8" t="s">
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="K75" s="8"/>
-      <c r="L75" s="9" t="s">
+      <c r="K75" s="9"/>
+      <c r="L75" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M75" s="5"/>
@@ -5312,27 +5318,27 @@
       <c r="A76" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8" t="s">
+      <c r="E76" s="9"/>
+      <c r="F76" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8" t="s">
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="K76" s="8"/>
-      <c r="L76" s="9" t="s">
+      <c r="K76" s="9"/>
+      <c r="L76" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M76" s="5"/>
@@ -5350,29 +5356,29 @@
       <c r="A77" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8" t="s">
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="K77" s="8"/>
-      <c r="L77" s="9" t="s">
+      <c r="K77" s="9"/>
+      <c r="L77" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M77" s="5"/>
@@ -5390,33 +5396,33 @@
       <c r="A78" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E78" s="8" t="s">
+      <c r="E78" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="F78" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8" t="s">
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="J78" s="8" t="s">
+      <c r="J78" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="K78" s="8" t="s">
+      <c r="K78" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="L78" s="9" t="s">
+      <c r="L78" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M78" s="5"/>
@@ -5434,33 +5440,33 @@
       <c r="A79" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E79" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F79" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G79" s="8" t="s">
+      <c r="G79" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8" t="s">
+      <c r="H79" s="9"/>
+      <c r="I79" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="J79" s="8" t="s">
+      <c r="J79" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="K79" s="8"/>
-      <c r="L79" s="9" t="s">
+      <c r="K79" s="9"/>
+      <c r="L79" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M79" s="5"/>
@@ -5481,22 +5487,22 @@
       <c r="B80" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8" t="s">
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="K80" s="8" t="s">
+      <c r="K80" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="L80" s="9" t="s">
+      <c r="L80" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M80" s="5"/>
@@ -5514,27 +5520,27 @@
       <c r="A81" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8" t="s">
+      <c r="E81" s="9"/>
+      <c r="F81" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8" t="s">
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="K81" s="8"/>
-      <c r="L81" s="9" t="s">
+      <c r="K81" s="9"/>
+      <c r="L81" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M81" s="5"/>
@@ -5552,33 +5558,33 @@
       <c r="A82" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8" t="s">
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="J82" s="8" t="s">
+      <c r="J82" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="K82" s="8" t="s">
+      <c r="K82" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="L82" s="9" t="s">
+      <c r="L82" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M82" s="5"/>
@@ -5596,31 +5602,31 @@
       <c r="A83" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="F83" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G83" s="8" t="s">
+      <c r="G83" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8" t="s">
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="K83" s="8"/>
-      <c r="L83" s="9" t="s">
+      <c r="K83" s="9"/>
+      <c r="L83" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M83" s="5"/>
@@ -5638,27 +5644,27 @@
       <c r="A84" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8" t="s">
+      <c r="E84" s="9"/>
+      <c r="F84" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8" t="s">
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="K84" s="8"/>
-      <c r="L84" s="9" t="s">
+      <c r="K84" s="9"/>
+      <c r="L84" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M84" s="5"/>
@@ -5676,29 +5682,29 @@
       <c r="A85" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8" t="s">
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="K85" s="8"/>
-      <c r="L85" s="9" t="s">
+      <c r="K85" s="9"/>
+      <c r="L85" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M85" s="5"/>
@@ -5716,33 +5722,33 @@
       <c r="A86" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="E86" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F86" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8" t="s">
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="J86" s="8" t="s">
+      <c r="J86" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="K86" s="8" t="s">
+      <c r="K86" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="L86" s="9" t="s">
+      <c r="L86" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M86" s="5"/>
@@ -5760,33 +5766,33 @@
       <c r="A87" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F87" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G87" s="8" t="s">
+      <c r="G87" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8" t="s">
+      <c r="H87" s="9"/>
+      <c r="I87" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="J87" s="8" t="s">
+      <c r="J87" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="K87" s="8"/>
-      <c r="L87" s="9" t="s">
+      <c r="K87" s="9"/>
+      <c r="L87" s="10" t="s">
         <v>207</v>
       </c>
       <c r="M87" s="5"/>
@@ -5814,25 +5820,25 @@
       <c r="I88" s="5"/>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-      <c r="L88" s="10" t="s">
+      <c r="L88" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M88" s="11" t="s">
+      <c r="M88" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="N88" s="11" t="s">
+      <c r="N88" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O88" s="11"/>
-      <c r="P88" s="11"/>
-      <c r="Q88" s="11"/>
-      <c r="R88" s="11"/>
-      <c r="S88" s="11"/>
-      <c r="T88" s="11"/>
-      <c r="U88" s="11" t="s">
+      <c r="O88" s="13"/>
+      <c r="P88" s="13"/>
+      <c r="Q88" s="13"/>
+      <c r="R88" s="13"/>
+      <c r="S88" s="13"/>
+      <c r="T88" s="13"/>
+      <c r="U88" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="V88" s="11" t="s">
+      <c r="V88" s="13" t="s">
         <v>262</v>
       </c>
     </row>
@@ -5850,29 +5856,29 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="10" t="s">
+      <c r="L89" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M89" s="11" t="s">
+      <c r="M89" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="N89" s="11" t="s">
+      <c r="N89" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O89" s="11" t="s">
+      <c r="O89" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P89" s="11"/>
-      <c r="Q89" s="11" t="s">
+      <c r="P89" s="13"/>
+      <c r="Q89" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="R89" s="11"/>
-      <c r="S89" s="11"/>
-      <c r="T89" s="11"/>
-      <c r="U89" s="11" t="s">
+      <c r="R89" s="13"/>
+      <c r="S89" s="13"/>
+      <c r="T89" s="13"/>
+      <c r="U89" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="V89" s="11"/>
+      <c r="V89" s="13"/>
     </row>
     <row r="90" spans="1:22">
       <c r="A90" s="5" t="s">
@@ -5888,33 +5894,33 @@
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="10" t="s">
+      <c r="L90" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M90" s="11" t="s">
+      <c r="M90" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="N90" s="11" t="s">
+      <c r="N90" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O90" s="11" t="s">
+      <c r="O90" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P90" s="11" t="s">
+      <c r="P90" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="Q90" s="11" t="s">
+      <c r="Q90" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="R90" s="11"/>
-      <c r="S90" s="11"/>
-      <c r="T90" s="11" t="s">
+      <c r="R90" s="13"/>
+      <c r="S90" s="13"/>
+      <c r="T90" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="U90" s="11" t="s">
+      <c r="U90" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="V90" s="11" t="s">
+      <c r="V90" s="13" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5932,33 +5938,33 @@
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="10" t="s">
+      <c r="L91" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M91" s="11" t="s">
+      <c r="M91" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="N91" s="11" t="s">
+      <c r="N91" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O91" s="11" t="s">
+      <c r="O91" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P91" s="11" t="s">
+      <c r="P91" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q91" s="11" t="s">
+      <c r="Q91" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="R91" s="11" t="s">
+      <c r="R91" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="S91" s="11"/>
-      <c r="T91" s="11"/>
-      <c r="U91" s="11" t="s">
+      <c r="S91" s="13"/>
+      <c r="T91" s="13"/>
+      <c r="U91" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="V91" s="11"/>
+      <c r="V91" s="13"/>
     </row>
     <row r="92" spans="1:22">
       <c r="A92" s="5" t="s">
@@ -5974,29 +5980,29 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="10" t="s">
+      <c r="L92" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M92" s="11" t="s">
+      <c r="M92" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="N92" s="11" t="s">
+      <c r="N92" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O92" s="11" t="s">
+      <c r="O92" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P92" s="11"/>
-      <c r="Q92" s="11" t="s">
+      <c r="P92" s="13"/>
+      <c r="Q92" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="R92" s="11"/>
-      <c r="S92" s="11"/>
-      <c r="T92" s="11"/>
-      <c r="U92" s="11" t="s">
+      <c r="R92" s="13"/>
+      <c r="S92" s="13"/>
+      <c r="T92" s="13"/>
+      <c r="U92" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="V92" s="11"/>
+      <c r="V92" s="13"/>
     </row>
     <row r="93" spans="1:22">
       <c r="A93" s="5" t="s">
@@ -6012,31 +6018,31 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="10" t="s">
+      <c r="L93" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M93" s="11" t="s">
+      <c r="M93" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="N93" s="11" t="s">
+      <c r="N93" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O93" s="11" t="s">
+      <c r="O93" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P93" s="11" t="s">
+      <c r="P93" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q93" s="11" t="s">
+      <c r="Q93" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="R93" s="11"/>
-      <c r="S93" s="11"/>
-      <c r="T93" s="11"/>
-      <c r="U93" s="11" t="s">
+      <c r="R93" s="13"/>
+      <c r="S93" s="13"/>
+      <c r="T93" s="13"/>
+      <c r="U93" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="V93" s="11"/>
+      <c r="V93" s="13"/>
     </row>
     <row r="94" spans="1:22">
       <c r="A94" s="5" t="s">
@@ -6052,33 +6058,33 @@
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="10" t="s">
+      <c r="L94" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M94" s="11" t="s">
+      <c r="M94" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="N94" s="11" t="s">
+      <c r="N94" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O94" s="11" t="s">
+      <c r="O94" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P94" s="11" t="s">
+      <c r="P94" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="Q94" s="11" t="s">
+      <c r="Q94" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="R94" s="11"/>
-      <c r="S94" s="11"/>
-      <c r="T94" s="11" t="s">
+      <c r="R94" s="13"/>
+      <c r="S94" s="13"/>
+      <c r="T94" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="U94" s="11" t="s">
+      <c r="U94" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="V94" s="11" t="s">
+      <c r="V94" s="13" t="s">
         <v>263</v>
       </c>
     </row>
@@ -6096,35 +6102,35 @@
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="10" t="s">
+      <c r="L95" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M95" s="11" t="s">
+      <c r="M95" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="N95" s="11" t="s">
+      <c r="N95" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O95" s="11" t="s">
+      <c r="O95" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P95" s="11" t="s">
+      <c r="P95" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="Q95" s="11" t="s">
+      <c r="Q95" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="R95" s="11" t="s">
+      <c r="R95" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="S95" s="11"/>
-      <c r="T95" s="11" t="s">
+      <c r="S95" s="13"/>
+      <c r="T95" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="U95" s="11" t="s">
+      <c r="U95" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="V95" s="11"/>
+      <c r="V95" s="13"/>
     </row>
     <row r="96" spans="1:22">
       <c r="A96" s="5" t="s">
@@ -6140,25 +6146,25 @@
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="10" t="s">
+      <c r="L96" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M96" s="11" t="s">
+      <c r="M96" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="N96" s="11" t="s">
+      <c r="N96" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O96" s="11"/>
-      <c r="P96" s="11"/>
-      <c r="Q96" s="11"/>
-      <c r="R96" s="11"/>
-      <c r="S96" s="11"/>
-      <c r="T96" s="11"/>
-      <c r="U96" s="11" t="s">
+      <c r="O96" s="13"/>
+      <c r="P96" s="13"/>
+      <c r="Q96" s="13"/>
+      <c r="R96" s="13"/>
+      <c r="S96" s="13"/>
+      <c r="T96" s="13"/>
+      <c r="U96" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="V96" s="11" t="s">
+      <c r="V96" s="13" t="s">
         <v>264</v>
       </c>
     </row>
@@ -6176,29 +6182,29 @@
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
-      <c r="L97" s="10" t="s">
+      <c r="L97" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M97" s="11" t="s">
+      <c r="M97" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="N97" s="11" t="s">
+      <c r="N97" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O97" s="11" t="s">
+      <c r="O97" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P97" s="11"/>
-      <c r="Q97" s="11" t="s">
+      <c r="P97" s="13"/>
+      <c r="Q97" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="R97" s="11"/>
-      <c r="S97" s="11"/>
-      <c r="T97" s="11"/>
-      <c r="U97" s="11" t="s">
+      <c r="R97" s="13"/>
+      <c r="S97" s="13"/>
+      <c r="T97" s="13"/>
+      <c r="U97" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="V97" s="11"/>
+      <c r="V97" s="13"/>
     </row>
     <row r="98" spans="1:22">
       <c r="A98" s="5" t="s">
@@ -6214,33 +6220,33 @@
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
-      <c r="L98" s="10" t="s">
+      <c r="L98" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M98" s="11" t="s">
+      <c r="M98" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="N98" s="11" t="s">
+      <c r="N98" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O98" s="11" t="s">
+      <c r="O98" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P98" s="11" t="s">
+      <c r="P98" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="Q98" s="11" t="s">
+      <c r="Q98" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="R98" s="11"/>
-      <c r="S98" s="11"/>
-      <c r="T98" s="11" t="s">
+      <c r="R98" s="13"/>
+      <c r="S98" s="13"/>
+      <c r="T98" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="U98" s="11" t="s">
+      <c r="U98" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="V98" s="11" t="s">
+      <c r="V98" s="13" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6258,33 +6264,33 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="10" t="s">
+      <c r="L99" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M99" s="11" t="s">
+      <c r="M99" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="N99" s="11" t="s">
+      <c r="N99" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O99" s="11" t="s">
+      <c r="O99" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P99" s="11" t="s">
+      <c r="P99" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q99" s="11" t="s">
+      <c r="Q99" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="R99" s="11" t="s">
+      <c r="R99" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="S99" s="11"/>
-      <c r="T99" s="11"/>
-      <c r="U99" s="11" t="s">
+      <c r="S99" s="13"/>
+      <c r="T99" s="13"/>
+      <c r="U99" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="V99" s="11"/>
+      <c r="V99" s="13"/>
     </row>
     <row r="100" spans="1:22">
       <c r="A100" s="5" t="s">
@@ -6300,29 +6306,29 @@
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="L100" s="10" t="s">
+      <c r="L100" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M100" s="11" t="s">
+      <c r="M100" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="N100" s="11" t="s">
+      <c r="N100" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O100" s="11" t="s">
+      <c r="O100" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P100" s="11"/>
-      <c r="Q100" s="11" t="s">
+      <c r="P100" s="13"/>
+      <c r="Q100" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="R100" s="11"/>
-      <c r="S100" s="11"/>
-      <c r="T100" s="11"/>
-      <c r="U100" s="11" t="s">
+      <c r="R100" s="13"/>
+      <c r="S100" s="13"/>
+      <c r="T100" s="13"/>
+      <c r="U100" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="V100" s="11"/>
+      <c r="V100" s="13"/>
     </row>
     <row r="101" spans="1:22">
       <c r="A101" s="5" t="s">
@@ -6338,31 +6344,31 @@
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="10" t="s">
+      <c r="L101" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M101" s="11" t="s">
+      <c r="M101" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="N101" s="11" t="s">
+      <c r="N101" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O101" s="11" t="s">
+      <c r="O101" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P101" s="11" t="s">
+      <c r="P101" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q101" s="11" t="s">
+      <c r="Q101" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="R101" s="11"/>
-      <c r="S101" s="11"/>
-      <c r="T101" s="11"/>
-      <c r="U101" s="11" t="s">
+      <c r="R101" s="13"/>
+      <c r="S101" s="13"/>
+      <c r="T101" s="13"/>
+      <c r="U101" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="V101" s="11"/>
+      <c r="V101" s="13"/>
     </row>
     <row r="102" spans="1:22">
       <c r="A102" s="5" t="s">
@@ -6378,33 +6384,33 @@
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="10" t="s">
+      <c r="L102" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M102" s="11" t="s">
+      <c r="M102" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="N102" s="11" t="s">
+      <c r="N102" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O102" s="11" t="s">
+      <c r="O102" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P102" s="11" t="s">
+      <c r="P102" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="Q102" s="11" t="s">
+      <c r="Q102" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="R102" s="11"/>
-      <c r="S102" s="11"/>
-      <c r="T102" s="11" t="s">
+      <c r="R102" s="13"/>
+      <c r="S102" s="13"/>
+      <c r="T102" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="U102" s="11" t="s">
+      <c r="U102" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="V102" s="11" t="s">
+      <c r="V102" s="13" t="s">
         <v>265</v>
       </c>
     </row>
@@ -6422,35 +6428,35 @@
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
-      <c r="L103" s="10" t="s">
+      <c r="L103" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M103" s="11" t="s">
+      <c r="M103" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="N103" s="11" t="s">
+      <c r="N103" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O103" s="11" t="s">
+      <c r="O103" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P103" s="11" t="s">
+      <c r="P103" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="Q103" s="11" t="s">
+      <c r="Q103" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="R103" s="11" t="s">
+      <c r="R103" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="S103" s="11"/>
-      <c r="T103" s="11" t="s">
+      <c r="S103" s="13"/>
+      <c r="T103" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="U103" s="11" t="s">
+      <c r="U103" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="V103" s="11"/>
+      <c r="V103" s="13"/>
     </row>
     <row r="104" spans="1:22">
       <c r="A104" s="5" t="s">
@@ -6466,29 +6472,29 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
-      <c r="L104" s="10" t="s">
+      <c r="L104" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M104" s="11" t="s">
+      <c r="M104" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="N104" s="11" t="s">
+      <c r="N104" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O104" s="11" t="s">
+      <c r="O104" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="P104" s="11"/>
-      <c r="Q104" s="11" t="s">
+      <c r="P104" s="13"/>
+      <c r="Q104" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="R104" s="11"/>
-      <c r="S104" s="11"/>
-      <c r="T104" s="11"/>
-      <c r="U104" s="11" t="s">
+      <c r="R104" s="13"/>
+      <c r="S104" s="13"/>
+      <c r="T104" s="13"/>
+      <c r="U104" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="V104" s="11" t="s">
+      <c r="V104" s="13" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6506,31 +6512,31 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
-      <c r="L105" s="10" t="s">
+      <c r="L105" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M105" s="11" t="s">
+      <c r="M105" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="N105" s="11" t="s">
+      <c r="N105" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O105" s="11" t="s">
+      <c r="O105" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="P105" s="11" t="s">
+      <c r="P105" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Q105" s="11" t="s">
+      <c r="Q105" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="R105" s="11"/>
-      <c r="S105" s="11"/>
-      <c r="T105" s="11"/>
-      <c r="U105" s="11" t="s">
+      <c r="R105" s="13"/>
+      <c r="S105" s="13"/>
+      <c r="T105" s="13"/>
+      <c r="U105" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="V105" s="11"/>
+      <c r="V105" s="13"/>
     </row>
     <row r="106" spans="1:22">
       <c r="A106" s="5" t="s">
@@ -6546,33 +6552,33 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
-      <c r="L106" s="10" t="s">
+      <c r="L106" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M106" s="11" t="s">
+      <c r="M106" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="N106" s="11" t="s">
+      <c r="N106" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O106" s="11" t="s">
+      <c r="O106" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="P106" s="11" t="s">
+      <c r="P106" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="Q106" s="11" t="s">
+      <c r="Q106" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="R106" s="11"/>
-      <c r="S106" s="11"/>
-      <c r="T106" s="11" t="s">
+      <c r="R106" s="13"/>
+      <c r="S106" s="13"/>
+      <c r="T106" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="U106" s="11" t="s">
+      <c r="U106" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="V106" s="11" t="s">
+      <c r="V106" s="13" t="s">
         <v>267</v>
       </c>
     </row>
@@ -6590,33 +6596,33 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
-      <c r="L107" s="10" t="s">
+      <c r="L107" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M107" s="11" t="s">
+      <c r="M107" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="N107" s="11" t="s">
+      <c r="N107" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O107" s="11" t="s">
+      <c r="O107" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="P107" s="11" t="s">
+      <c r="P107" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="Q107" s="11" t="s">
+      <c r="Q107" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="R107" s="11"/>
-      <c r="S107" s="11"/>
-      <c r="T107" s="11" t="s">
+      <c r="R107" s="13"/>
+      <c r="S107" s="13"/>
+      <c r="T107" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="U107" s="11" t="s">
+      <c r="U107" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="V107" s="11" t="s">
+      <c r="V107" s="13" t="s">
         <v>268</v>
       </c>
     </row>
@@ -6634,29 +6640,29 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
-      <c r="L108" s="10" t="s">
+      <c r="L108" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M108" s="11" t="s">
+      <c r="M108" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="N108" s="11" t="s">
+      <c r="N108" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O108" s="11" t="s">
+      <c r="O108" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="P108" s="11"/>
-      <c r="Q108" s="11" t="s">
+      <c r="P108" s="13"/>
+      <c r="Q108" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="R108" s="11"/>
-      <c r="S108" s="11"/>
-      <c r="T108" s="11"/>
-      <c r="U108" s="11" t="s">
+      <c r="R108" s="13"/>
+      <c r="S108" s="13"/>
+      <c r="T108" s="13"/>
+      <c r="U108" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="V108" s="11" t="s">
+      <c r="V108" s="13" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6674,31 +6680,31 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
-      <c r="L109" s="10" t="s">
+      <c r="L109" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M109" s="11" t="s">
+      <c r="M109" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="N109" s="11" t="s">
+      <c r="N109" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O109" s="11" t="s">
+      <c r="O109" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="P109" s="11" t="s">
+      <c r="P109" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Q109" s="11" t="s">
+      <c r="Q109" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="R109" s="11"/>
-      <c r="S109" s="11"/>
-      <c r="T109" s="11"/>
-      <c r="U109" s="11" t="s">
+      <c r="R109" s="13"/>
+      <c r="S109" s="13"/>
+      <c r="T109" s="13"/>
+      <c r="U109" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="V109" s="11"/>
+      <c r="V109" s="13"/>
     </row>
     <row r="110" spans="1:22">
       <c r="A110" s="5" t="s">
@@ -6714,33 +6720,33 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
-      <c r="L110" s="10" t="s">
+      <c r="L110" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M110" s="11" t="s">
+      <c r="M110" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="N110" s="11" t="s">
+      <c r="N110" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O110" s="11" t="s">
+      <c r="O110" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="P110" s="11" t="s">
+      <c r="P110" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="Q110" s="11" t="s">
+      <c r="Q110" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="R110" s="11"/>
-      <c r="S110" s="11"/>
-      <c r="T110" s="11" t="s">
+      <c r="R110" s="13"/>
+      <c r="S110" s="13"/>
+      <c r="T110" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="U110" s="11" t="s">
+      <c r="U110" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="V110" s="11" t="s">
+      <c r="V110" s="13" t="s">
         <v>269</v>
       </c>
     </row>
@@ -6758,29 +6764,29 @@
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
-      <c r="L111" s="10" t="s">
+      <c r="L111" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M111" s="11" t="s">
+      <c r="M111" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="N111" s="11" t="s">
+      <c r="N111" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O111" s="11" t="s">
+      <c r="O111" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="P111" s="11"/>
-      <c r="Q111" s="11" t="s">
+      <c r="P111" s="13"/>
+      <c r="Q111" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="R111" s="11"/>
-      <c r="S111" s="11"/>
-      <c r="T111" s="11"/>
-      <c r="U111" s="11" t="s">
+      <c r="R111" s="13"/>
+      <c r="S111" s="13"/>
+      <c r="T111" s="13"/>
+      <c r="U111" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="V111" s="11" t="s">
+      <c r="V111" s="13" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6798,31 +6804,31 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
-      <c r="L112" s="10" t="s">
+      <c r="L112" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M112" s="11" t="s">
+      <c r="M112" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N112" s="11" t="s">
+      <c r="N112" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O112" s="11" t="s">
+      <c r="O112" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="P112" s="11" t="s">
+      <c r="P112" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Q112" s="11" t="s">
+      <c r="Q112" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="R112" s="11"/>
-      <c r="S112" s="11"/>
-      <c r="T112" s="11"/>
-      <c r="U112" s="11" t="s">
+      <c r="R112" s="13"/>
+      <c r="S112" s="13"/>
+      <c r="T112" s="13"/>
+      <c r="U112" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="V112" s="11"/>
+      <c r="V112" s="13"/>
     </row>
     <row r="113" spans="1:22">
       <c r="A113" s="5" t="s">
@@ -6838,33 +6844,33 @@
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
-      <c r="L113" s="10" t="s">
+      <c r="L113" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M113" s="11" t="s">
+      <c r="M113" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="N113" s="11" t="s">
+      <c r="N113" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O113" s="11" t="s">
+      <c r="O113" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="P113" s="11" t="s">
+      <c r="P113" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="Q113" s="11" t="s">
+      <c r="Q113" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="R113" s="11"/>
-      <c r="S113" s="11"/>
-      <c r="T113" s="11" t="s">
+      <c r="R113" s="13"/>
+      <c r="S113" s="13"/>
+      <c r="T113" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="U113" s="11" t="s">
+      <c r="U113" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="V113" s="11" t="s">
+      <c r="V113" s="13" t="s">
         <v>269</v>
       </c>
     </row>
@@ -6882,25 +6888,25 @@
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
-      <c r="L114" s="10" t="s">
+      <c r="L114" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M114" s="11" t="s">
+      <c r="M114" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="N114" s="11" t="s">
+      <c r="N114" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="O114" s="11"/>
-      <c r="P114" s="11"/>
-      <c r="Q114" s="11"/>
-      <c r="R114" s="11"/>
-      <c r="S114" s="11"/>
-      <c r="T114" s="11"/>
-      <c r="U114" s="11" t="s">
+      <c r="O114" s="13"/>
+      <c r="P114" s="13"/>
+      <c r="Q114" s="13"/>
+      <c r="R114" s="13"/>
+      <c r="S114" s="13"/>
+      <c r="T114" s="13"/>
+      <c r="U114" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="V114" s="11" t="s">
+      <c r="V114" s="13" t="s">
         <v>270</v>
       </c>
     </row>
@@ -6918,29 +6924,29 @@
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
-      <c r="L115" s="10" t="s">
+      <c r="L115" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M115" s="11" t="s">
+      <c r="M115" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="N115" s="11" t="s">
+      <c r="N115" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="O115" s="11" t="s">
+      <c r="O115" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="P115" s="11"/>
-      <c r="Q115" s="11" t="s">
+      <c r="P115" s="13"/>
+      <c r="Q115" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="R115" s="11"/>
-      <c r="S115" s="11"/>
-      <c r="T115" s="11"/>
-      <c r="U115" s="11" t="s">
+      <c r="R115" s="13"/>
+      <c r="S115" s="13"/>
+      <c r="T115" s="13"/>
+      <c r="U115" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="V115" s="11"/>
+      <c r="V115" s="13"/>
     </row>
     <row r="116" spans="1:22">
       <c r="A116" s="5" t="s">
@@ -6956,31 +6962,31 @@
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
-      <c r="L116" s="10" t="s">
+      <c r="L116" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M116" s="11" t="s">
+      <c r="M116" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="N116" s="11" t="s">
+      <c r="N116" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="O116" s="11" t="s">
+      <c r="O116" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="P116" s="11" t="s">
+      <c r="P116" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="Q116" s="11" t="s">
+      <c r="Q116" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="R116" s="11"/>
-      <c r="S116" s="11"/>
-      <c r="T116" s="11"/>
-      <c r="U116" s="11" t="s">
+      <c r="R116" s="13"/>
+      <c r="S116" s="13"/>
+      <c r="T116" s="13"/>
+      <c r="U116" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="V116" s="11"/>
+      <c r="V116" s="13"/>
     </row>
     <row r="117" spans="1:22">
       <c r="A117" s="5" t="s">
@@ -6996,33 +7002,33 @@
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
-      <c r="L117" s="10" t="s">
+      <c r="L117" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M117" s="11" t="s">
+      <c r="M117" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="N117" s="11" t="s">
+      <c r="N117" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="O117" s="11" t="s">
+      <c r="O117" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="P117" s="11" t="s">
+      <c r="P117" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="Q117" s="11" t="s">
+      <c r="Q117" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="R117" s="11"/>
-      <c r="S117" s="11"/>
-      <c r="T117" s="11" t="s">
+      <c r="R117" s="13"/>
+      <c r="S117" s="13"/>
+      <c r="T117" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="U117" s="11" t="s">
+      <c r="U117" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="V117" s="11" t="s">
+      <c r="V117" s="13" t="s">
         <v>271</v>
       </c>
     </row>
@@ -7040,33 +7046,33 @@
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
-      <c r="L118" s="10" t="s">
+      <c r="L118" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M118" s="11" t="s">
+      <c r="M118" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="N118" s="11" t="s">
+      <c r="N118" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="O118" s="11" t="s">
+      <c r="O118" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="P118" s="11" t="s">
+      <c r="P118" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="Q118" s="11" t="s">
+      <c r="Q118" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="R118" s="11"/>
-      <c r="S118" s="11"/>
-      <c r="T118" s="11" t="s">
+      <c r="R118" s="13"/>
+      <c r="S118" s="13"/>
+      <c r="T118" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="U118" s="11" t="s">
+      <c r="U118" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="V118" s="11" t="s">
+      <c r="V118" s="13" t="s">
         <v>272</v>
       </c>
     </row>
@@ -7084,79 +7090,79 @@
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
-      <c r="L119" s="10" t="s">
+      <c r="L119" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="M119" s="11" t="s">
+      <c r="M119" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="N119" s="11" t="s">
+      <c r="N119" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="O119" s="11" t="s">
+      <c r="O119" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="P119" s="11" t="s">
+      <c r="P119" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="Q119" s="11" t="s">
+      <c r="Q119" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="R119" s="11"/>
-      <c r="S119" s="11"/>
-      <c r="T119" s="11" t="s">
+      <c r="R119" s="13"/>
+      <c r="S119" s="13"/>
+      <c r="T119" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="U119" s="11" t="s">
+      <c r="U119" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="V119" s="11" t="s">
+      <c r="V119" s="13" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="120" spans="1:22">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5" t="s">
+      <c r="C120" s="2"/>
+      <c r="D120" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E120" s="5"/>
+      <c r="E120" s="2"/>
       <c r="F120" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
-      <c r="J120" s="5" t="s">
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="K120" s="5"/>
+      <c r="K120" s="2"/>
       <c r="L120" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="M120" s="5" t="s">
+      <c r="M120" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N120" s="5"/>
-      <c r="O120" s="5" t="s">
+      <c r="N120" s="2"/>
+      <c r="O120" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P120" s="5"/>
+      <c r="P120" s="2"/>
       <c r="Q120" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="R120" s="5"/>
-      <c r="S120" s="5"/>
-      <c r="T120" s="5"/>
-      <c r="U120" s="5" t="s">
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
+      <c r="T120" s="2"/>
+      <c r="U120" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="V120" s="5"/>
+      <c r="V120" s="2"/>
     </row>
     <row r="121" spans="1:22">
       <c r="A121" s="5" t="s">
@@ -7209,48 +7215,48 @@
       <c r="V121" s="5"/>
     </row>
     <row r="122" spans="1:22">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5" t="s">
+      <c r="C122" s="2"/>
+      <c r="D122" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E122" s="5"/>
+      <c r="E122" s="2"/>
       <c r="F122" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
-      <c r="I122" s="5"/>
-      <c r="J122" s="5" t="s">
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="K122" s="5"/>
+      <c r="K122" s="2"/>
       <c r="L122" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="M122" s="5" t="s">
+      <c r="M122" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N122" s="5"/>
-      <c r="O122" s="5" t="s">
+      <c r="N122" s="2"/>
+      <c r="O122" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P122" s="5"/>
+      <c r="P122" s="2"/>
       <c r="Q122" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="R122" s="5"/>
-      <c r="S122" s="5"/>
-      <c r="T122" s="5"/>
-      <c r="U122" s="5" t="s">
+      <c r="R122" s="2"/>
+      <c r="S122" s="2"/>
+      <c r="T122" s="2"/>
+      <c r="U122" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="V122" s="5"/>
+      <c r="V122" s="2"/>
     </row>
     <row r="123" spans="1:22">
       <c r="A123" s="5" t="s">
